--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -12,12 +12,12 @@
     <sheet name="当班日志" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,11 +280,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>余兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+  </si>
+  <si>
+    <t>上托状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>QQ联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -406,6 +423,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -710,9 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -842,9 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -971,10 +985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,11 +997,11 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,34 +1024,46 @@
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1050,9 +1076,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1065,9 +1090,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1080,9 +1104,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1095,9 +1118,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1110,9 +1132,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1125,9 +1146,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1140,9 +1160,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1155,9 +1174,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1170,9 +1188,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1185,9 +1202,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1200,9 +1216,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1215,9 +1230,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1230,9 +1244,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1245,9 +1258,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1260,9 +1272,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1275,9 +1286,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1290,9 +1300,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1305,9 +1314,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1320,9 +1328,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1335,9 +1342,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1350,9 +1356,8 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1365,9 +1370,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1380,9 +1384,8 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1395,9 +1398,8 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1410,9 +1412,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1425,9 +1426,8 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1440,9 +1440,8 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1455,9 +1454,8 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1470,9 +1468,8 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1485,9 +1482,8 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1500,9 +1496,8 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1515,9 +1510,8 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1530,9 +1524,8 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1545,9 +1538,8 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1560,9 +1552,8 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1575,9 +1566,8 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1590,9 +1580,8 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1605,9 +1594,8 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1620,9 +1608,8 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1635,9 +1622,8 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1650,9 +1636,8 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1665,9 +1650,8 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1680,9 +1664,8 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1695,9 +1678,8 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1710,9 +1692,8 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1725,7 +1706,6 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1743,13 +1723,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D48 J2:J48</xm:sqref>
+          <xm:sqref>D2:D48 I2:I48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:I48</xm:sqref>
+          <xm:sqref>H2:H48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -12,12 +12,12 @@
     <sheet name="当班日志" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,61 @@
   </si>
   <si>
     <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>入库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月30日20:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月30日21:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月2日14:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月2日20:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月3日15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月3日19：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月5日22：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月5日23：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -987,16 +1044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1049,11 +1105,11 @@
       <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="10">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.875</v>
+      <c r="F2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>54</v>
@@ -1067,43 +1123,85 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,28 @@
   </si>
   <si>
     <t>电话联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋福民</t>
+  </si>
+  <si>
+    <t>4月14日19：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月14日19：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损退回语句未执行结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1066,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1207,15 +1231,31 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>破损退回语句未执行结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月14日22：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月22日22：40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1079,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,6 +1087,7 @@
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -1261,15 +1274,31 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -1861,7 +1890,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D48 I2:I48</xm:sqref>
+          <xm:sqref>I2:I48 D2:D48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,33 @@
   <si>
     <t>4月9日15：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>宋福民</t>
+  </si>
+  <si>
+    <t>破损退回语句未执行结束</t>
+  </si>
+  <si>
+    <t>4月14日19：00</t>
+  </si>
+  <si>
+    <t>4月14日19：30</t>
+  </si>
+  <si>
+    <t>电话联系</t>
+  </si>
+  <si>
+    <t>同步失败</t>
+  </si>
+  <si>
+    <t>4月14日22：00</t>
+  </si>
+  <si>
+    <t>4月22日22：40</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1160,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:J10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1433,29 +1460,61 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,38 +360,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TJ</t>
-  </si>
-  <si>
-    <t>陈涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拣货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月8日16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月8日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月8日17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月8日17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息4月9日10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息4月9日11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
   </si>
   <si>
     <t>宋福民</t>
   </si>
   <si>
+    <t>破损退回语句未执行结束</t>
+  </si>
+  <si>
     <t>4月14日19：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4月14日19：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破损退回语句未执行结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
   </si>
   <si>
     <t>同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4月14日22：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4月22日22：40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1079,7 +1160,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1168,6 @@
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -1247,27 +1327,25 @@
       <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1275,100 +1353,168 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -1890,7 +2036,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I48 D2:D48</xm:sqref>
+          <xm:sqref>D2:D48 I2:I48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,22 @@
   </si>
   <si>
     <t>4月22日22：40</t>
+  </si>
+  <si>
+    <t>夏青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月17日23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月17日23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单，未完成，被强制结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1160,7 +1176,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1168,6 +1184,7 @@
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -1520,15 +1537,31 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,9 +472,6 @@
     <t>4月14日22：00</t>
   </si>
   <si>
-    <t>4月22日22：40</t>
-  </si>
-  <si>
     <t>夏青青</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +485,26 @@
   </si>
   <si>
     <t>入库单，未完成，被强制结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马慧艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一托托盘上架失败，导致中间层数据未写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23日22:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月14日22：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23日22:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,7 +1193,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1201,7 @@
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -1523,7 +1540,7 @@
         <v>99</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>54</v>
@@ -1541,19 +1558,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>54</v>
@@ -1567,15 +1584,31 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,122 @@
   </si>
   <si>
     <t>4月23日22:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月24日16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单有一件条码未扫入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日11:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月2日22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月2日23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1614,85 +1730,169 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,122 @@
   </si>
   <si>
     <t>4月23日22:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月24日16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单有一件条码未扫入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日11:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月2日22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月2日23:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1614,85 +1730,169 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -12,12 +12,15 @@
     <sheet name="当班日志" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +624,73 @@
   </si>
   <si>
     <t>5月2日23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月22日22：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月22日22：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月25日22：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月25日22：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单来源地修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月4日16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月4日16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单虚拟仓，业务类型，法人机构修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日15:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,6 +826,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="联系方式"/>
+      <sheetName val="值班表"/>
+      <sheetName val="当班日志"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,7 +1267,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1306,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,6 +1411,7 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -1703,27 +1793,25 @@
       <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1731,27 +1819,29 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1759,27 +1849,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1787,27 +1877,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1815,27 +1905,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -1843,27 +1933,27 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1878,77 +1968,133 @@
         <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -2286,29 +2432,75 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B48</xm:sqref>
+          <xm:sqref>B2:B13 B15 B17:B50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D48 I2:I48</xm:sqref>
+          <xm:sqref>D17:D50 I2:I13 D2:D13 D15 I15 I17:I50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H48</xm:sqref>
+          <xm:sqref>H2:H13 H15 H17:H50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H14 H16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D14 I14 D16 I16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14 B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="159">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,22 @@
   </si>
   <si>
     <t>5月5日15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单来源地与虚拟仓互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗菲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,9 +854,9 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
@@ -1398,7 +1414,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2100,15 +2116,31 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,6 +707,42 @@
   </si>
   <si>
     <t>罗菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马慧燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日20:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温丽萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2146,29 +2182,61 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -15,12 +15,15 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">当班日志!$A$1:$J$50</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,6 +746,25 @@
   </si>
   <si>
     <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>丁聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步异常，历史库存修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月9日8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月9日9:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1449,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2242,15 +2264,31 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
@@ -2561,6 +2599,7 @@
       <c r="J50" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J50"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2576,7 +2615,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D17:D50 I2:I13 D2:D13 D15 I15 I17:I50</xm:sqref>
+          <xm:sqref>I2:I13 D2:D13 D15 I15 I17:I50 D17:D50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="179">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,30 @@
   </si>
   <si>
     <t>5月9日9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改产品生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月16日10：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月16日11：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1471,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2294,15 +2318,29 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,6 +789,87 @@
   </si>
   <si>
     <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+  </si>
+  <si>
+    <t>5月21日16:15</t>
+  </si>
+  <si>
+    <t>5月21日16:45</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月20日11:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月20日11:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月22日19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月22日19:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月22日19:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月22日20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月23日18:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月23日18:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1446,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2346,71 +2427,141 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="176">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,18 @@
   </si>
   <si>
     <t>5月9日9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔同步异常，历史库存修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月15日14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月15日16:08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1471,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2294,15 +2306,31 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
@@ -2615,7 +2643,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I13 D2:D13 D15 I15 I17:I50 D17:D50</xm:sqref>
+          <xm:sqref>I2:I13 D2:D13 D15 I15 D17:D50 I17:I50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,7 +2567,9 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,9 +2567,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2567,7 +2567,9 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,63 @@
   <si>
     <t>5月15日16:08</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改产品生产日期</t>
+  </si>
+  <si>
+    <t>5月16日10：30</t>
+  </si>
+  <si>
+    <t>5月16日11：00</t>
+  </si>
+  <si>
+    <t>QQ联系</t>
+  </si>
+  <si>
+    <t>孙广胜</t>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+  </si>
+  <si>
+    <t>5月20日11:10</t>
+  </si>
+  <si>
+    <t>5月20日11:43</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+  </si>
+  <si>
+    <t>5月21日16:15</t>
+  </si>
+  <si>
+    <t>5月21日16:45</t>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+  </si>
+  <si>
+    <t>5月22日19:30</t>
+  </si>
+  <si>
+    <t>5月22日19:43</t>
+  </si>
+  <si>
+    <t>5月22日19:45</t>
+  </si>
+  <si>
+    <t>5月22日20:00</t>
+  </si>
+  <si>
+    <t>5月23日18:05</t>
+  </si>
+  <si>
+    <t>5月23日18:26</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2336,85 +2393,169 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="217">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -835,6 +835,94 @@
   </si>
   <si>
     <t>5月23日18:26</t>
+  </si>
+  <si>
+    <t>出库单拣货报错原因为扫描枪没电了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方志曹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月26日19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月26日19:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏宁宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月25日18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描枪系统登录失败，网络异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月25日18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品创建错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月27日20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月27日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库断网，rfid数据未上传，历史库存错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日11：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日13：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建错误，原沈阳订单创建在了天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日14：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1407,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -1529,6 +1617,72 @@
         <v>42155</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42156</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42163</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42170</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42177</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42184</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42191</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:J35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2561,71 +2715,151 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2">

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="联系方式" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="237">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,6 +922,86 @@
   </si>
   <si>
     <t>5月29日16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月1日14：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆拼托同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日15：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日16：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日16：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日16：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单少绑定托盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月3日9：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月3日10：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单状态不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月4日9：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月4日9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,7 +1775,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="B41" sqref="B41:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2865,71 +2945,141 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
@@ -3012,25 +3162,25 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B13 B15 B17:B50</xm:sqref>
+          <xm:sqref>B2:B13 B15 B17:B40 B46:B50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I13 D2:D13 D15 I15 D17:D50 I17:I50</xm:sqref>
+          <xm:sqref>I2:I13 D2:D13 D15 I15 I46:I50 I17:I40 D17:D40 D46:D50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H13 H15 H17:H50</xm:sqref>
+          <xm:sqref>H2:H13 H15 H17:H40 H46:H50</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Sheet1!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H14 H16</xm:sqref>
+          <xm:sqref>H14 H16 B41:B45 H41:I45 D41:D45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
@@ -1135,6 +1135,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1159,7 +1162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1201,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1236,7 +1239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1774,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:J45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="279">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,6 +1002,174 @@
   </si>
   <si>
     <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local和Online库位不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加托盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月9日16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月9日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月10日10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月10日10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月11日13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月11日13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月12日11:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月12日11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月13日10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月13日10:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1124,6 +1292,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1162,7 +1332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1204,7 +1374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,7 +1409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1775,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3088,71 +3258,323 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J50"/>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">当班日志!$A$1:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">当班日志!$A$1:$J$60</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="298">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1170,82 @@
   </si>
   <si>
     <t>6月13日10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋福民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月15日 13:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月15日 14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托盘状态修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单状态不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单送货单号修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单数量调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 22:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1332,7 +1408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1374,7 +1450,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1409,7 +1485,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1947,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3482,71 +3558,141 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
@@ -3577,9 +3723,10 @@
       <c r="J60" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J50"/>
+  <autoFilter ref="A1:J60"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -3593,7 +3740,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I13 D2:D13 D15 I15 I46:I50 I17:I40 D17:D40 D46:D50</xm:sqref>
+          <xm:sqref>I2:I13 D2:D13 D15 I15 I46:I50 I17:I40 D17:D40 D46:D50 D54:D58</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="310">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,834 +418,880 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4月9日11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月9日15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>宋福民</t>
+  </si>
+  <si>
+    <t>破损退回语句未执行结束</t>
+  </si>
+  <si>
+    <t>4月14日19：00</t>
+  </si>
+  <si>
+    <t>4月14日19：30</t>
+  </si>
+  <si>
+    <t>电话联系</t>
+  </si>
+  <si>
+    <t>同步失败</t>
+  </si>
+  <si>
+    <t>4月14日22：00</t>
+  </si>
+  <si>
+    <t>夏青青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月17日23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月17日23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单，未完成，被强制结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马慧艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一托托盘上架失败，导致中间层数据未写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23日22:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月14日22：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月23日22:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月24日16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月28日18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单有一件条码未扫入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日11:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月29日21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月2日22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月2日23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月22日22：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月22日22：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ</t>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月25日22：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月25日22：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单来源地修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月4日16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月4日16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单虚拟仓，业务类型，法人机构修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单来源地与虚拟仓互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月5日23:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马慧燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日20:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温丽萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月6日22:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>丁聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步异常，历史库存修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月9日8:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月9日9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔同步异常，历史库存修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月15日14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月15日16:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改产品生产日期</t>
+  </si>
+  <si>
+    <t>5月16日10：30</t>
+  </si>
+  <si>
+    <t>5月16日11：00</t>
+  </si>
+  <si>
+    <t>QQ联系</t>
+  </si>
+  <si>
+    <t>孙广胜</t>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+  </si>
+  <si>
+    <t>5月20日11:10</t>
+  </si>
+  <si>
+    <t>5月20日11:43</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+  </si>
+  <si>
+    <t>5月21日16:15</t>
+  </si>
+  <si>
+    <t>5月21日16:45</t>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+  </si>
+  <si>
+    <t>5月22日19:30</t>
+  </si>
+  <si>
+    <t>5月22日19:43</t>
+  </si>
+  <si>
+    <t>5月22日19:45</t>
+  </si>
+  <si>
+    <t>5月22日20:00</t>
+  </si>
+  <si>
+    <t>5月23日18:05</t>
+  </si>
+  <si>
+    <t>5月23日18:26</t>
+  </si>
+  <si>
+    <t>出库单拣货报错原因为扫描枪没电了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方志曹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月26日19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月26日19:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏宁宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月25日18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描枪系统登录失败，网络异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月25日18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品创建错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月27日20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月27日20:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库断网，rfid数据未上传，历史库存错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日11：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日13：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建错误，原沈阳订单创建在了天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日14：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月29日16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月1日14：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆拼托同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日15：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日16：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日16：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月2日16：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单少绑定托盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月3日9：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月3日10：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单状态不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月4日9：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月4日9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local和Online库位不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日15:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月8日16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加托盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月9日16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月9日16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月10日10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月10日10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月11日13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月11日13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单信息填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月12日11:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月12日11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙广胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月13日10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月13日10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋福民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月15日 13:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月15日 14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托盘状态修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单状态不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 20:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库单同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月16日 22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单送货单号修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单数量调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月17日 22:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单条码乱码调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月18日 19:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月18日 20:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>入库单信息4月9日10:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月9日11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>4月9日10:30</t>
   </si>
   <si>
     <t>入库单信息4月9日11:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月9日12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月9日14:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月9日15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ</t>
+    <t>4月9日11:30</t>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宋福民</t>
-  </si>
-  <si>
-    <t>破损退回语句未执行结束</t>
-  </si>
-  <si>
-    <t>4月14日19：00</t>
-  </si>
-  <si>
-    <t>4月14日19：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库托盘数据信息确认，经核实，仓库未做发货确认，就拿来做收货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日 20:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日 20:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电话联系</t>
-  </si>
-  <si>
-    <t>同步失败</t>
-  </si>
-  <si>
-    <t>4月14日22：00</t>
-  </si>
-  <si>
-    <t>夏青青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月17日23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月17日23:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单，未完成，被强制结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马慧艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一托托盘上架失败，导致中间层数据未写入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月23日22:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月14日22：40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月23日22:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单信息填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月28日16:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月24日16:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月28日17:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月28日17:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月28日18:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单有一件条码未扫入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月29日11:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月29日12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月29日20:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月29日21:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单信息填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月2日22:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月2日23:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月22日22：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月22日22：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GZ</t>
-  </si>
-  <si>
-    <t>陈涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月25日22：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月25日22：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单来源地修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月4日16:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月4日16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单虚拟仓，业务类型，法人机构修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月5日15:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月5日15:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单来源地与虚拟仓互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月5日23:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月5日23:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗菲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马慧燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月6日20:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月6日20:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温丽萍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月6日22:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月6日22:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>丁聪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步异常，历史库存修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月9日8:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月9日9:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔同步异常，历史库存修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月15日14:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月15日16:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改产品生产日期</t>
-  </si>
-  <si>
-    <t>5月16日10：30</t>
-  </si>
-  <si>
-    <t>5月16日11：00</t>
-  </si>
-  <si>
-    <t>QQ联系</t>
-  </si>
-  <si>
-    <t>孙广胜</t>
-  </si>
-  <si>
-    <t>入库单信息填写错误</t>
-  </si>
-  <si>
-    <t>5月20日11:10</t>
-  </si>
-  <si>
-    <t>5月20日11:43</t>
-  </si>
-  <si>
-    <t>邮件</t>
-  </si>
-  <si>
-    <t>出库单同步失败</t>
-  </si>
-  <si>
-    <t>5月21日16:15</t>
-  </si>
-  <si>
-    <t>5月21日16:45</t>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-  </si>
-  <si>
-    <t>5月22日19:30</t>
-  </si>
-  <si>
-    <t>5月22日19:43</t>
-  </si>
-  <si>
-    <t>5月22日19:45</t>
-  </si>
-  <si>
-    <t>5月22日20:00</t>
-  </si>
-  <si>
-    <t>5月23日18:05</t>
-  </si>
-  <si>
-    <t>5月23日18:26</t>
-  </si>
-  <si>
-    <t>出库单拣货报错原因为扫描枪没电了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方志曹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月26日19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月26日19:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏宁宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月25日18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描枪系统登录失败，网络异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月25日18:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单产品创建错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月27日20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月27日20:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张秀玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库断网，rfid数据未上传，历史库存错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月29日11：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月29日13：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单创建错误，原沈阳订单创建在了天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月29日14：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月29日16：20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月1日14：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆拼托同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月2日15：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月2日16：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月2日16：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月2日16：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单少绑定托盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月3日9：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月3日10：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单状态不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月4日9：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月4日9:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单信息填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月8日13:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月8日14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local和Online库位不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月8日15:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月8日16:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月8日16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月8日16:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加托盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月9日16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月9日16:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月10日10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月10日10:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月11日13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月11日13:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单信息填写错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月12日11:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月12日11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙广胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月13日10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月13日10:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋福民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月15日 13:46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月15日 14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托盘状态修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单状态不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月16日 20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月16日 20:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移库单同步失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月16日 22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月16日 22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单送货单号修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月17日 15:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月17日 15:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单数量调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月17日 21:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月17日 22:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1696,7 +1742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1827,7 +1875,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2023,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2254,18 +2302,20 @@
         <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2280,11 +2330,13 @@
         <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>73</v>
@@ -2306,13 +2358,13 @@
         <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -2327,29 +2379,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2357,29 +2409,29 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -2390,26 +2442,26 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -2424,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>37</v>
@@ -2448,26 +2500,26 @@
         <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -2475,27 +2527,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -2503,27 +2555,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -2531,27 +2583,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -2559,27 +2611,27 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -2587,27 +2639,27 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -2615,27 +2667,27 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -2643,27 +2695,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -2671,27 +2723,27 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -2703,23 +2755,23 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -2730,19 +2782,19 @@
         <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>54</v>
@@ -2760,19 +2812,19 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>54</v>
@@ -2787,29 +2839,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -2817,22 +2869,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>54</v>
@@ -2850,19 +2902,19 @@
         <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>54</v>
@@ -2877,27 +2929,27 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -2909,23 +2961,23 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -2937,23 +2989,23 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -2965,23 +3017,23 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -2993,23 +3045,23 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -3017,27 +3069,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -3045,29 +3097,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -3078,26 +3130,26 @@
         <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -3108,26 +3160,26 @@
         <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -3135,29 +3187,29 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -3165,29 +3217,29 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -3202,20 +3254,20 @@
         <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -3227,23 +3279,23 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -3255,23 +3307,23 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -3283,23 +3335,23 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -3307,27 +3359,27 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -3335,27 +3387,27 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -3363,27 +3415,27 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -3391,27 +3443,27 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -3419,27 +3471,27 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -3447,27 +3499,27 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -3475,27 +3527,27 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E51" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="H51" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -3503,27 +3555,27 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="G52" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -3531,27 +3583,27 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E53" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="H53" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -3559,27 +3611,27 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -3587,27 +3639,27 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -3615,27 +3667,27 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -3643,27 +3695,27 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -3671,56 +3723,82 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J60"/>
@@ -3740,7 +3818,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I13 D2:D13 D15 I15 I46:I50 I17:I40 D17:D40 D46:D50 D54:D58</xm:sqref>
+          <xm:sqref>I2:I13 D2:D13 D15 I15 I46:I50 I17:I40 D17:D40 D46:D50 D54:D59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="324">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1292,6 +1292,62 @@
   </si>
   <si>
     <t>电话联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日 9：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日 10:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日 15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月22日 15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月24日 14：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月24日 14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月26日 15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月26日 15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月26日 19：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月26日 19:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2069,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:J61"/>
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3798,6 +3854,121 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/RFID值班表.xlsx
+++ b/RFID值班表.xlsx
@@ -16,14 +16,14 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">当班日志!$A$1:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">当班日志!$A$1:$J$72</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="359">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1348,6 +1348,146 @@
   </si>
   <si>
     <t>6月26日 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋福民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单虚拟仓错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 10:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 10:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月28日 20:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月28日 20:40:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋福民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 17:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 17:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存数据核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 18:20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 18:40:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据输入错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 11:20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月29日 11:50:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月3日 10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月3日 10:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月4日 16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月4日 17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月6日 12:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单拣货异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月6日 13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话联系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,6 +2256,39 @@
         <v>42197</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42198</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42205</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42212</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2138,7 +2311,7 @@
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.75" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
@@ -3850,7 +4023,9 @@
       <c r="G60" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
         <v>309</v>
@@ -3873,7 +4048,9 @@
       <c r="G61" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
         <v>55</v>
@@ -3896,7 +4073,9 @@
       <c r="G62" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
         <v>317</v>
@@ -3919,7 +4098,9 @@
       <c r="G63" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
         <v>55</v>
@@ -3942,7 +4123,9 @@
       <c r="G64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
         <v>55</v>
@@ -3965,20 +4148,222 @@
       <c r="G65" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J60"/>
+  <autoFilter ref="A1:J72"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$6</xm:f>
@@ -4001,19 +4386,7 @@
           <x14:formula1>
             <xm:f>[1]Sheet1!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H14 H16 B41:B45 H41:I45 D41:D45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet1!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D14 I14 D16 I16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet1!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14 B16</xm:sqref>
+          <xm:sqref>B41:B45 H41:I45 D41:D45 B14 B16 D14 H14:I14 D16 H16:I16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4026,7 +4399,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
